--- a/08-Accounting-Service/sample.xlsx
+++ b/08-Accounting-Service/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,93 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
-  <si>
-    <t>شماره سفارش</t>
-  </si>
-  <si>
-    <t>بیمه</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+  <si>
+    <t>پستکس</t>
+  </si>
+  <si>
+    <t>کاربر ثبت کننده</t>
+  </si>
+  <si>
+    <t>هزینه جمع آوری</t>
+  </si>
+  <si>
+    <t>لفاف و بسته بندی</t>
+  </si>
+  <si>
+    <t>پرینت فاکتور</t>
+  </si>
+  <si>
+    <t>بد</t>
+  </si>
+  <si>
+    <t>بس</t>
+  </si>
+  <si>
+    <t>انبارداری</t>
+  </si>
+  <si>
+    <t>هزینه توزیع</t>
+  </si>
+  <si>
+    <t>تخفیف نمایندگی</t>
+  </si>
+  <si>
+    <t>پستکس (کیف پول)</t>
+  </si>
+  <si>
+    <t>پستکس (بانک)</t>
   </si>
   <si>
     <t>هزینه پستی</t>
   </si>
   <si>
-    <t>پیامک</t>
-  </si>
-  <si>
-    <t>ثبت الکترونیک</t>
-  </si>
-  <si>
-    <t>جمع آوری</t>
-  </si>
-  <si>
-    <t>فنی و مهندسی</t>
-  </si>
-  <si>
-    <t>جمع کل سفارش</t>
-  </si>
-  <si>
-    <t>پست پیشتاز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تخفیف </t>
-  </si>
-  <si>
-    <t>بدهکار</t>
-  </si>
-  <si>
-    <t>بستانکار</t>
-  </si>
-  <si>
-    <t>طرف حساب</t>
-  </si>
-  <si>
-    <t>بانک</t>
-  </si>
-  <si>
-    <t xml:space="preserve">درآمد </t>
-  </si>
-  <si>
     <t>هزینه پیامک</t>
   </si>
   <si>
-    <t>حسابهای پرداختنی/ کاوه نگار</t>
-  </si>
-  <si>
-    <t>هزینه جمع آوری</t>
-  </si>
-  <si>
-    <t>حسابهای پرداختنی/ نماینده</t>
-  </si>
-  <si>
-    <t>حسابهای پرداختنی/اداره پست</t>
-  </si>
-  <si>
-    <t>حسابهای پرداختنی/ اداره پست</t>
-  </si>
-  <si>
-    <t>روند پس کرایه</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ثبت سفارش</t>
-  </si>
-  <si>
-    <t>جمع آوری و ارسال بار</t>
-  </si>
-  <si>
-    <t>تحویل مرسوله</t>
-  </si>
-  <si>
-    <t>تایید مبلغ از طرف پستچی</t>
-  </si>
-  <si>
-    <t>تسویه به شماره شبا</t>
-  </si>
-  <si>
-    <t>شارژ کیف پول به مبلغ ارزش کالا</t>
-  </si>
-  <si>
-    <t>کسر از کیف پول</t>
+    <t>هزینه بیمه</t>
+  </si>
+  <si>
+    <t>در زمان برگشت مبلغ کیف پول به حساب بانکی کاربر ثبت کننده</t>
+  </si>
+  <si>
+    <t>سود</t>
   </si>
 </sst>
 </file>
@@ -119,7 +83,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -147,21 +111,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -184,29 +142,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -488,287 +530,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6" customWidth="1"/>
+    <col min="14" max="14" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <f>D2</f>
+        <v>1000000</v>
+      </c>
+      <c r="L7" s="1">
+        <f>E6</f>
+        <v>400000</v>
+      </c>
+      <c r="M7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="1">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="1">
+        <f>E12</f>
+        <v>200000</v>
+      </c>
+      <c r="M9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K10" s="8"/>
+      <c r="L10" s="1">
+        <f>E15</f>
+        <v>40000</v>
+      </c>
+      <c r="M10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="1">
+        <f>E18</f>
+        <v>50000</v>
+      </c>
+      <c r="M11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="1">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K13" s="8"/>
+      <c r="L13" s="1">
+        <f>E28</f>
+        <v>20000</v>
+      </c>
+      <c r="M13" s="6">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="5">
+        <f>E31</f>
+        <v>100000</v>
+      </c>
+      <c r="M14" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="21">
+        <v>30000</v>
+      </c>
+      <c r="M15" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="17">
+        <f>SUM(K7:K14)</f>
+        <v>1000000</v>
+      </c>
+      <c r="L16" s="1">
+        <f>SUM(L7:L15)</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="17">
+        <f>K16-L16</f>
+        <v>160000</v>
+      </c>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>961563</v>
-      </c>
-      <c r="B2" s="6">
-        <f>D2*10%</f>
-        <v>15456.2</v>
-      </c>
-      <c r="C2" s="7">
-        <v>16350</v>
-      </c>
-      <c r="D2" s="7">
-        <v>154562</v>
-      </c>
-      <c r="E2" s="7">
-        <v>16350</v>
-      </c>
-      <c r="F2" s="7">
-        <v>5450</v>
-      </c>
-      <c r="G2" s="7">
-        <v>425100</v>
-      </c>
-      <c r="H2" s="7">
-        <v>34280</v>
-      </c>
-      <c r="I2" s="7">
-        <f>C2+D2+E2+F2+G2+H2</f>
-        <v>652092</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11">
-        <f>I2</f>
-        <v>652092</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11">
-        <f>I2</f>
-        <v>652092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
-        <f>E2</f>
-        <v>16350</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
-        <f>E2</f>
-        <v>16350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
-        <f>E2</f>
-        <v>16350</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
-        <f>E2</f>
-        <v>16350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11">
-        <v>350000</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11">
-        <v>350000</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11">
-        <f>D2</f>
-        <v>154562</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11">
-        <f>D2</f>
-        <v>154562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
-        <f>D2</f>
-        <v>154562</v>
-      </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11">
-        <f>D2</f>
-        <v>154562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="13">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F34:J35"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="J6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
